--- a/TariffManagerEngine/files/iec.xlsx
+++ b/TariffManagerEngine/files/iec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eneriqs\TariffManager\TariffManagerEngine\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAC086C-A117-4188-87E3-DBC819D6FB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10575F5-37AD-42D4-970D-F1EFB7D778E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{DF3813E0-D4AD-46BA-8F3D-365E04EF61AF}"/>
+    <workbookView xWindow="2040" yWindow="1605" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{DF3813E0-D4AD-46BA-8F3D-365E04EF61AF}"/>
   </bookViews>
   <sheets>
     <sheet name="קיץ" sheetId="1" r:id="rId1"/>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D059BEF8-6532-4058-8441-CF1F62A614D7}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,8 +475,9 @@
     <col min="1" max="1" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="2" customWidth="1"/>
     <col min="7" max="8" width="25" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.140625" style="1" customWidth="1"/>
@@ -535,10 +536,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="2">
-        <v>103.81</v>
+        <v>115.76</v>
       </c>
       <c r="F2" s="2">
-        <v>88.73</v>
+        <v>98.94</v>
       </c>
       <c r="G2" s="1">
         <v>0.41666666666666669</v>
@@ -558,10 +559,10 @@
         <v>15</v>
       </c>
       <c r="E3" s="2">
-        <v>43.77</v>
+        <v>48.39</v>
       </c>
       <c r="F3" s="2">
-        <v>37.409999999999997</v>
+        <v>41.36</v>
       </c>
       <c r="G3" s="1">
         <v>0.29166666666666669</v>
@@ -581,10 +582,10 @@
         <v>15</v>
       </c>
       <c r="E4" s="2">
-        <v>43.77</v>
+        <v>48.39</v>
       </c>
       <c r="F4" s="2">
-        <v>37.409999999999997</v>
+        <v>41.36</v>
       </c>
       <c r="G4" s="1">
         <v>0.70833333333333337</v>
@@ -604,10 +605,10 @@
         <v>16</v>
       </c>
       <c r="E5" s="2">
-        <v>28.76</v>
+        <v>31.6</v>
       </c>
       <c r="F5" s="2">
-        <v>24.58</v>
+        <v>27.01</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -639,10 +640,10 @@
         <v>16</v>
       </c>
       <c r="E6" s="2">
-        <v>28.76</v>
+        <v>31.6</v>
       </c>
       <c r="F6" s="2">
-        <v>24.58</v>
+        <v>27.01</v>
       </c>
       <c r="G6" s="1">
         <v>0.875</v>
@@ -662,7 +663,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="A1:XFD1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,10 +731,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="2">
-        <v>95.54</v>
+        <v>106.88</v>
       </c>
       <c r="F2" s="2">
-        <v>81.66</v>
+        <v>91.35</v>
       </c>
       <c r="G2" s="1">
         <v>0.66666666666666663</v>
@@ -759,10 +760,10 @@
         <v>15</v>
       </c>
       <c r="E3" s="2">
-        <v>56.21</v>
+        <v>62.7</v>
       </c>
       <c r="F3" s="2">
-        <v>48.04</v>
+        <v>53.59</v>
       </c>
       <c r="G3" s="1">
         <v>0.25</v>
@@ -794,10 +795,10 @@
         <v>16</v>
       </c>
       <c r="E4" s="2">
-        <v>32.08</v>
+        <v>35.44</v>
       </c>
       <c r="F4" s="2">
-        <v>27.42</v>
+        <v>30.29</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -829,10 +830,10 @@
         <v>16</v>
       </c>
       <c r="E5" s="2">
-        <v>32.08</v>
+        <v>35.44</v>
       </c>
       <c r="F5" s="2">
-        <v>27.42</v>
+        <v>30.29</v>
       </c>
       <c r="G5" s="1">
         <v>0.33333333333333331</v>
@@ -841,7 +842,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="I5" s="1">
-        <v>0.91666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -864,10 +865,10 @@
         <v>16</v>
       </c>
       <c r="E6" s="2">
-        <v>32.08</v>
+        <v>35.44</v>
       </c>
       <c r="F6" s="2">
-        <v>27.42</v>
+        <v>30.29</v>
       </c>
       <c r="G6" s="1">
         <v>0.91666666666666663</v>
@@ -886,7 +887,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="A1:XFD1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,10 +955,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="2">
-        <v>43.49</v>
+        <v>48.22</v>
       </c>
       <c r="F2" s="2">
-        <v>37.17</v>
+        <v>41.21</v>
       </c>
       <c r="G2" s="1">
         <v>0.25</v>
@@ -977,10 +978,10 @@
         <v>15</v>
       </c>
       <c r="E3" s="2">
-        <v>34.99</v>
+        <v>38.67</v>
       </c>
       <c r="F3" s="2">
-        <v>29.91</v>
+        <v>33.049999999999997</v>
       </c>
       <c r="G3" s="1">
         <v>0.83333333333333337</v>
@@ -1012,10 +1013,10 @@
         <v>16</v>
       </c>
       <c r="E4" s="2">
-        <v>28.22</v>
+        <v>31.09</v>
       </c>
       <c r="F4" s="2">
-        <v>24.12</v>
+        <v>26.57</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -1047,10 +1048,10 @@
         <v>16</v>
       </c>
       <c r="E5" s="2">
-        <v>28.22</v>
+        <v>31.09</v>
       </c>
       <c r="F5" s="2">
-        <v>24.12</v>
+        <v>26.57</v>
       </c>
       <c r="G5" s="1">
         <v>0.91666666666666663</v>
@@ -1081,7 +1082,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1138,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44682</v>
+        <v>44774</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -1149,10 +1150,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="2">
-        <v>43.49</v>
+        <v>48.22</v>
       </c>
       <c r="F2" s="2">
-        <v>37.17</v>
+        <v>41.21</v>
       </c>
       <c r="G2" s="1">
         <v>0.25</v>
@@ -1172,10 +1173,10 @@
         <v>15</v>
       </c>
       <c r="E3" s="2">
-        <v>34.99</v>
+        <v>38.67</v>
       </c>
       <c r="F3" s="2">
-        <v>29.91</v>
+        <v>33.049999999999997</v>
       </c>
       <c r="G3" s="1">
         <v>0.83333333333333337</v>
@@ -1207,10 +1208,10 @@
         <v>16</v>
       </c>
       <c r="E4" s="2">
-        <v>28.22</v>
+        <v>31.09</v>
       </c>
       <c r="F4" s="2">
-        <v>24.12</v>
+        <v>26.57</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -1242,10 +1243,10 @@
         <v>16</v>
       </c>
       <c r="E5" s="2">
-        <v>28.22</v>
+        <v>31.09</v>
       </c>
       <c r="F5" s="2">
-        <v>24.12</v>
+        <v>26.57</v>
       </c>
       <c r="G5" s="1">
         <v>0.91666666666666663</v>

--- a/TariffManagerEngine/files/iec.xlsx
+++ b/TariffManagerEngine/files/iec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eneriqs\TariffManager\TariffManagerEngine\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eneriqs\TariffManager\TariffManagerEngine\bin\Debug\net6.0\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10575F5-37AD-42D4-970D-F1EFB7D778E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0670A5-1CB6-4C3A-859F-05F6B9DBDDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1605" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{DF3813E0-D4AD-46BA-8F3D-365E04EF61AF}"/>
+    <workbookView xWindow="2040" yWindow="1605" windowWidth="21600" windowHeight="11295" xr2:uid="{DF3813E0-D4AD-46BA-8F3D-365E04EF61AF}"/>
   </bookViews>
   <sheets>
     <sheet name="קיץ" sheetId="1" r:id="rId1"/>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D059BEF8-6532-4058-8441-CF1F62A614D7}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +524,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44682</v>
+        <v>44774</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -663,7 +663,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +719,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44682</v>
+        <v>44774</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -887,7 +887,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +943,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44682</v>
+        <v>44774</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -1081,7 +1081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A3F4E5-CC48-406F-9EEF-D5CC9ED5D871}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
